--- a/Mifos Automation Excels/Client/2563-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2563-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -216,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,6 +398,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -440,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +481,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,10 +885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,12 +906,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="30" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -909,17 +952,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -945,8 +989,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -972,8 +1017,9 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1011,14 +1057,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1056,14 +1103,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1099,14 +1147,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1142,14 +1191,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1185,14 +1235,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1228,14 +1279,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1271,14 +1323,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1314,14 +1367,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1357,14 +1411,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1400,14 +1455,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1443,10 +1499,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>875.08</v>
       </c>
     </row>
@@ -1460,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2563-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2563-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,13 +16,14 @@
     <sheet name="Acc_Disbursement1" sheetId="7" r:id="rId7"/>
     <sheet name="Acc_Repayment1" sheetId="6" r:id="rId8"/>
     <sheet name="Acc_Upfront" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -206,22 +202,16 @@
     <t>L4729</t>
   </si>
   <si>
-    <t>L4730</t>
-  </si>
-  <si>
-    <t>$ 21.13</t>
-  </si>
-  <si>
-    <t>L4734</t>
-  </si>
-  <si>
-    <t>$ 83.8</t>
+    <t>$ 520.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -388,6 +378,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,26 +475,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,23 +510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,6 +719,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
@@ -887,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1496,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1505,7 @@
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
@@ -2237,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2228,8 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2304,8 +2283,8 @@
       <c r="G2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>52</v>
+      <c r="H2" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -2332,173 +2311,78 @@
         <v>36</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
-        <v>52</v>
+      <c r="I3" s="34" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>8558</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="26">
-        <v>42050</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>8559</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="26">
-        <v>42050</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>8558</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29">
-        <v>42050</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>8559</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="29">
-        <v>42050</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>36</v>
-      </c>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="I9" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>8569</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="32">
-        <v>42095</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>8570</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="32">
-        <v>42095</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="I12" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>